--- a/curation/draft/crf/CRF_VS.xlsx
+++ b/curation/draft/crf/CRF_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\crf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2730B0AD-3EC1-48E2-A357-4A3913826EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB1463E-6398-41D1-A777-ED4ADD760A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRF_VS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="351">
   <si>
     <t>package_date</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t>completion_instructions</t>
+  </si>
+  <si>
+    <t>What was the unit of the Diastolic Blood Pressure measurement?</t>
   </si>
 </sst>
 </file>
@@ -1504,9 +1507,9 @@
   <dimension ref="A1:AK113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2271,7 @@
         <v>240</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="S11">
         <v>5</v>
